--- a/Documentation/Sprints/Sprint3/Sprint 3 Burnup Chart.xlsx
+++ b/Documentation/Sprints/Sprint3/Sprint 3 Burnup Chart.xlsx
@@ -121,11 +121,11 @@
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="167135921"/>
-        <c:axId val="529466576"/>
+        <c:axId val="98527371"/>
+        <c:axId val="1088498293"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="167135921"/>
+        <c:axId val="98527371"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -140,10 +140,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="529466576"/>
+        <c:crossAx val="1088498293"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="529466576"/>
+        <c:axId val="1088498293"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -174,7 +174,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="167135921"/>
+        <c:crossAx val="98527371"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
